--- a/src/LightApi.UnitTest/Files/test2.xlsx
+++ b/src/LightApi.UnitTest/Files/test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\LightApi\src\LightApi.UnitTest\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8597969-DFA2-4110-990A-7E02851FEB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4D8912-17B0-423B-9D73-5505CD058A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -356,7 +351,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -406,11 +401,17 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/LightApi.UnitTest/Files/test2.xlsx
+++ b/src/LightApi.UnitTest/Files/test2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\LightApi\src\LightApi.UnitTest\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4D8912-17B0-423B-9D73-5505CD058A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB63DFAF-37BC-4992-BE38-2EC22E7D8712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,7 +347,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -385,7 +381,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="B4">
         <v>11</v>
       </c>
     </row>
